--- a/documentacion/FullAutoavaluacio_IsmaelSanchez.xlsx
+++ b/documentacion/FullAutoavaluacio_IsmaelSanchez.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D05447-D439-4377-B9CD-830EF650299C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC93979-DFDB-4CB5-BDC6-BE7129A249E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -97,10 +98,10 @@
     <t>Heu d'omplir els camps just a la dreta d'quells que estan en color vermell.</t>
   </si>
   <si>
+    <t>https://github.com/sandraperezgu/FlotaTQS</t>
+  </si>
+  <si>
     <t>Sanchez Fernandez, Ismael</t>
-  </si>
-  <si>
-    <t>https://github.com/sandraperezgu/FlotaTQS</t>
   </si>
 </sst>
 </file>
@@ -487,11 +488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -535,7 +536,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -726,7 +727,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -735,7 +736,7 @@
       </c>
       <c r="C22">
         <f>SUM(C20:L20)</f>
-        <v>0.90000000000000024</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -883,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
@@ -925,7 +926,7 @@
       </c>
       <c r="L31">
         <f t="shared" ref="L31" si="19">L30*L28</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -934,7 +935,7 @@
       </c>
       <c r="C33">
         <f>SUM(C31:L31)</f>
-        <v>0.90000000000000024</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -950,6 +951,9 @@
       <c r="B37" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
@@ -960,7 +964,7 @@
       </c>
       <c r="C39">
         <f>C37*C35</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -968,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
